--- a/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_veryhighfee.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_veryhighfee.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22848" windowHeight="9624"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22845" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -617,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114416640"/>
-        <c:axId val="114505984"/>
+        <c:axId val="97373568"/>
+        <c:axId val="97379456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114416640"/>
+        <c:axId val="97373568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114505984"/>
+        <c:crossAx val="97379456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114505984"/>
+        <c:axId val="97379456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +653,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114416640"/>
+        <c:crossAx val="97373568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -997,15 +997,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>149.22999999999999</v>
       </c>
@@ -1015,8 +1015,20 @@
       <c r="C1">
         <v>142.88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <f>A1*50</f>
+        <v>7461.4999999999991</v>
+      </c>
+      <c r="F1">
+        <f>B1*50</f>
+        <v>7153</v>
+      </c>
+      <c r="G1">
+        <f>C1*50</f>
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>147.22999999999999</v>
       </c>
@@ -1026,8 +1038,20 @@
       <c r="C2">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f t="shared" ref="E2:E50" si="0">A2*50</f>
+        <v>7361.4999999999991</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F50" si="1">B2*50</f>
+        <v>6797</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G50" si="2">C2*50</f>
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>145.07000000000002</v>
       </c>
@@ -1037,8 +1061,20 @@
       <c r="C3">
         <v>131.88</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>7253.5000000000009</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>6451.0000000000009</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>142.83000000000001</v>
       </c>
@@ -1048,8 +1084,20 @@
       <c r="C4">
         <v>126.63040000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7141.5000000000009</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>6071</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>6331.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>140.98999999999998</v>
       </c>
@@ -1059,8 +1107,20 @@
       <c r="C5">
         <v>118.7264</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7049.4999999999991</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5703</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>5936.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>138.74999999999997</v>
       </c>
@@ -1070,8 +1130,20 @@
       <c r="C6">
         <v>111.3216</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6937.4999999999982</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5359</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5566.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>136.67000000000004</v>
       </c>
@@ -1081,8 +1153,20 @@
       <c r="C7">
         <v>105.29472</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6833.5000000000018</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4991</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>5264.7359999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>134.67000000000004</v>
       </c>
@@ -1092,8 +1176,20 @@
       <c r="C8">
         <v>99.334144000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6733.5000000000018</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4623</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4966.7072000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>132.67000000000004</v>
       </c>
@@ -1103,8 +1199,20 @@
       <c r="C9">
         <v>93.20103936000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6633.5000000000018</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4267</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4660.0519680000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>130.59</v>
       </c>
@@ -1114,8 +1222,20 @@
       <c r="C10">
         <v>85.50048000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6529.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3904.9999999999995</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4275.0240000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>128.27000000000007</v>
       </c>
@@ -1125,8 +1245,20 @@
       <c r="C11">
         <v>78.197084160000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6413.5000000000036</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3522</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3909.8542080000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>126.10999999999999</v>
       </c>
@@ -1136,8 +1268,20 @@
       <c r="C12">
         <v>71.726407833600007</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6305.4999999999991</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3126</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>3586.3203916800003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>124.03000000000006</v>
       </c>
@@ -1147,8 +1291,20 @@
       <c r="C13">
         <v>63.984366950400009</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6201.5000000000027</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2756</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>3199.2183475200004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121.86999999999998</v>
       </c>
@@ -1158,8 +1314,20 @@
       <c r="C14">
         <v>57.068743919616004</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6093.4999999999991</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2386</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2853.4371959808004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>119.71000000000001</v>
       </c>
@@ -1169,8 +1337,20 @@
       <c r="C15">
         <v>49.546504978513923</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5985.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2477.3252489256961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>117.62999999999997</v>
       </c>
@@ -1180,8 +1360,20 @@
       <c r="C16">
         <v>42.863617638400008</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5881.4999999999982</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1738</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2143.1808819200005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>115.39000000000007</v>
       </c>
@@ -1191,8 +1383,20 @@
       <c r="C17">
         <v>36.593175756800008</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5769.5000000000036</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1829.6587878400005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>113.31000000000003</v>
       </c>
@@ -1202,8 +1406,20 @@
       <c r="C18">
         <v>30.168852480000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5665.5000000000018</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1154</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1508.4426240000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112.19000000000003</v>
       </c>
@@ -1213,8 +1429,20 @@
       <c r="C19">
         <v>23.643776000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5609.5000000000009</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>915</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1182.1888000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>111.15000000000006</v>
       </c>
@@ -1224,8 +1452,20 @@
       <c r="C20">
         <v>18.3872</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5557.5000000000027</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>754</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>919.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>110.03000000000006</v>
       </c>
@@ -1235,8 +1475,20 @@
       <c r="C21">
         <v>15.0176</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5501.5000000000027</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>607</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>750.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>108.98999999999998</v>
       </c>
@@ -1246,8 +1498,20 @@
       <c r="C22">
         <v>11.856000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5449.4999999999991</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>592.80000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>107.86999999999998</v>
       </c>
@@ -1257,8 +1521,20 @@
       <c r="C23">
         <v>9.942400000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5393.4999999999991</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>497.12000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>107.15000000000006</v>
       </c>
@@ -1268,8 +1544,20 @@
       <c r="C24">
         <v>7.9248000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5357.5000000000027</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>396.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>106.27000000000007</v>
       </c>
@@ -1279,8 +1567,20 @@
       <c r="C25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5313.5000000000036</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>105.39000000000007</v>
       </c>
@@ -1290,8 +1590,20 @@
       <c r="C26">
         <v>4.68</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5269.5000000000036</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>104.27000000000007</v>
       </c>
@@ -1301,8 +1613,20 @@
       <c r="C27">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5213.5000000000036</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>103.22999999999999</v>
       </c>
@@ -1312,8 +1636,20 @@
       <c r="C28">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>5161.4999999999991</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>102.43000000000004</v>
       </c>
@@ -1323,8 +1659,20 @@
       <c r="C29">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5121.5000000000018</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>101.22999999999999</v>
       </c>
@@ -1334,8 +1682,20 @@
       <c r="C30">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>5061.4999999999991</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>100.35</v>
       </c>
@@ -1345,8 +1705,20 @@
       <c r="C31">
         <v>4.22</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>5017.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>99.310000000000031</v>
       </c>
@@ -1356,8 +1728,20 @@
       <c r="C32">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4965.5000000000018</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>98.190000000000026</v>
       </c>
@@ -1367,8 +1751,20 @@
       <c r="C33">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>4909.5000000000009</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>97.310000000000031</v>
       </c>
@@ -1378,8 +1774,20 @@
       <c r="C34">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>4865.5000000000018</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>95.869999999999976</v>
       </c>
@@ -1389,8 +1797,20 @@
       <c r="C35">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>4793.4999999999991</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95.13</v>
       </c>
@@ -1400,8 +1820,20 @@
       <c r="C36">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>4756.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>94.85</v>
       </c>
@@ -1411,8 +1843,20 @@
       <c r="C37">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>4742.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>94.55</v>
       </c>
@@ -1422,8 +1866,20 @@
       <c r="C38">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>4727.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>94.25</v>
       </c>
@@ -1433,8 +1889,20 @@
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>4712.5</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>93.75</v>
       </c>
@@ -1444,8 +1912,20 @@
       <c r="C40">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>4687.5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>93.51</v>
       </c>
@@ -1455,8 +1935,20 @@
       <c r="C41">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4675.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>93.31</v>
       </c>
@@ -1466,8 +1958,20 @@
       <c r="C42">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4665.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>93.14</v>
       </c>
@@ -1477,8 +1981,20 @@
       <c r="C43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>4657</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>93.01</v>
       </c>
@@ -1488,8 +2004,20 @@
       <c r="C44">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>4650.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>92.81</v>
       </c>
@@ -1499,8 +2027,20 @@
       <c r="C45">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>4640.5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>92.71</v>
       </c>
@@ -1510,8 +2050,20 @@
       <c r="C46">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>4635.5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>92.61</v>
       </c>
@@ -1521,8 +2073,20 @@
       <c r="C47">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>4630.5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>92.51</v>
       </c>
@@ -1532,8 +2096,20 @@
       <c r="C48">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>4625.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>92.43</v>
       </c>
@@ -1543,8 +2119,20 @@
       <c r="C49">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>4621.5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>92.4</v>
       </c>
@@ -1553,6 +2141,18 @@
       </c>
       <c r="C50">
         <v>1.44</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +2167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1579,7 +2179,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
